--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="163">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1163,6 +1163,36 @@
   </si>
   <si>
     <t>arrivalDate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>orderNo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>orderDate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>constructionNo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>到着コメント</t>
+    <rPh sb="0" eb="2">
+      <t>トウチャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>返却コメント</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rails g migration add_retuning_comment_to_repairs </t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1666,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK80"/>
+  <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="G67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3389,7 +3419,7 @@
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="10" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="10" t="s">
@@ -3444,19 +3474,19 @@
         <v>148</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>155</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="N80" s="5" t="s">
         <v>144</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="P80" s="5" t="s">
         <v>155</v>
@@ -3478,6 +3508,35 @@
       <c r="W80" s="1" t="str">
         <f>CONCATENATE(W79," ",E80,F80,G80,H80,I80,J80,K80,L80,M80,N80,O80,P80,Q80,R80,,S80,T80,U80,V80)</f>
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
+      </c>
+    </row>
+    <row r="82" spans="2:23">
+      <c r="B82" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23">
+      <c r="E83" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="W83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23">
+      <c r="C84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="W84" s="1" t="str">
+        <f>CONCATENATE(W83," ",E84,F84,G84,H84,I84,J84,K84,L84,M84,N84,O84,P84,Q84,R84,,S84,T84,U84,V84)</f>
+        <v xml:space="preserve">rails g migration add_retuning_comment_to_repairs  returningComment:text </v>
       </c>
     </row>
   </sheetData>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@gitwork\r2\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="8040"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="r2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="165">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1195,12 +1200,29 @@
     <t xml:space="preserve">rails g migration add_retuning_comment_to_repairs </t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>法人にロケーションの項目をマージ(併せてロケーションは削除)</t>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rails destroy scaffold location</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1410,7 +1432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1452,7 +1474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1487,7 +1509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1696,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK84"/>
+  <dimension ref="A1:AK91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView tabSelected="1" topLeftCell="T77" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="W91" sqref="W91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
@@ -2034,7 +2056,7 @@
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1">
+    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2066,15 +2088,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="6" customFormat="1"/>
-    <row r="3" spans="1:23">
+    <row r="2" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="4" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
@@ -2100,7 +2122,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="12"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2144,7 +2166,7 @@
         <v xml:space="preserve">rails generate scaffold Company name:string category:string </v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="6" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
@@ -2174,7 +2196,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2226,7 +2248,7 @@
         <v xml:space="preserve">rails generate scaffold Location postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="8" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
@@ -2250,7 +2272,7 @@
       <c r="U8" s="10"/>
       <c r="V8" s="12"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2288,7 +2310,7 @@
         <v xml:space="preserve">rails generate scaffold Enginestatus name:string </v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="10" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
@@ -2312,7 +2334,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2350,7 +2372,7 @@
         <v xml:space="preserve">rails generate scaffold Businessstatus name:string </v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="12" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
@@ -2376,7 +2398,7 @@
       <c r="U12" s="10"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -2418,7 +2440,7 @@
         <v xml:space="preserve">rails generate scaffold Engine engineModelName:string salesModelName:string </v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="8" customFormat="1" ht="12">
+    <row r="14" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
@@ -2444,7 +2466,7 @@
       <c r="U14" s="10"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2486,19 +2508,19 @@
         <v xml:space="preserve">rails generate scaffold Enginemodel modelcode:string name:string </v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="13" customFormat="1" ht="12">
+    <row r="16" spans="1:23" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="F16" s="14"/>
       <c r="H16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:37" s="8" customFormat="1" ht="12">
+    <row r="18" spans="1:37" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
@@ -2526,7 +2548,7 @@
       <c r="U18" s="10"/>
       <c r="V18" s="12"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2572,7 +2594,7 @@
         <v xml:space="preserve">rails generate scaffold Returning returnDate:date returningComment:text sendingComment:text </v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="8" customFormat="1" ht="12">
+    <row r="20" spans="1:37" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>0</v>
@@ -2600,7 +2622,7 @@
       <c r="U20" s="10"/>
       <c r="V20" s="12"/>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -2644,7 +2666,7 @@
         <v xml:space="preserve">rails generate scaffold Arrival arrivalDate:date arrivalComment:text </v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="8" customFormat="1" ht="12">
+    <row r="22" spans="1:37" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="20" t="s">
@@ -2680,7 +2702,7 @@
       <c r="U22" s="10"/>
       <c r="V22" s="12"/>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,7 +2764,7 @@
         <v xml:space="preserve">rails generate scaffold Repair issueNo:string issueDate:date arriveDate:date startDate:date finishDate:date beforeComment:text afterComment:text </v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="8" customFormat="1">
+    <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="10" t="s">
@@ -2794,7 +2816,7 @@
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2872,7 +2894,7 @@
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:37" s="8" customFormat="1">
+    <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -2908,7 +2930,7 @@
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -2935,7 +2957,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="1:37" s="8" customFormat="1">
+    <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
         <v>0</v>
@@ -2963,7 +2985,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -2994,7 +3016,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
@@ -3024,7 +3046,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
@@ -3049,7 +3071,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="1:37" s="8" customFormat="1">
+    <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -3075,7 +3097,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="4"/>
@@ -3100,7 +3122,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="8"/>
     </row>
-    <row r="34" spans="1:23" s="8" customFormat="1">
+    <row r="34" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -3126,7 +3148,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
@@ -3151,7 +3173,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
@@ -3179,13 +3201,13 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="D37" s="6" t="s">
         <v>0</v>
       </c>
       <c r="W37" s="8"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>77</v>
       </c>
@@ -3197,14 +3219,14 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1">
+    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="1"/>
       <c r="W39" s="13"/>
     </row>
-    <row r="40" spans="1:23" ht="15" thickBot="1">
+    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C40" s="16" t="s">
         <v>79</v>
       </c>
@@ -3213,7 +3235,7 @@
         <v xml:space="preserve">rails generate scaffold rails generate devise User </v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="18" thickBot="1">
+    <row r="41" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C41" s="16" t="s">
         <v>80</v>
       </c>
@@ -3222,7 +3244,7 @@
       </c>
       <c r="W41" s="13"/>
     </row>
-    <row r="42" spans="1:23" ht="17.25">
+    <row r="42" spans="1:23" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C42" s="6" t="s">
         <v>81</v>
       </c>
@@ -3234,7 +3256,7 @@
         <v>rails generate scaffold rails g devise:views # =&gt; すべてテーブルの内容が tmp/fixtures/*.yml に抽出される</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="17.25">
+    <row r="43" spans="1:23" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -3242,12 +3264,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="17.25">
+    <row r="44" spans="1:23" ht="17.25" x14ac:dyDescent="0.15">
       <c r="K44" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" thickBot="1">
+    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>83</v>
       </c>
@@ -3255,12 +3277,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15" thickBot="1">
+    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C46" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1">
+    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C47" s="17" t="s">
         <v>86</v>
       </c>
@@ -3268,17 +3290,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15" thickBot="1">
+    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C48" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K49" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="17.25">
+    <row r="50" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>87</v>
       </c>
@@ -3286,12 +3308,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C51" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C52" s="6" t="s">
         <v>89</v>
       </c>
@@ -3299,7 +3321,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="17.25">
+    <row r="53" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C53" s="6" t="s">
         <v>90</v>
       </c>
@@ -3307,107 +3329,107 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C57" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" thickBot="1">
+    <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" thickBot="1">
+    <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C59" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" thickBot="1">
+    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" thickBot="1">
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C61" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C63" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="1:23" ht="15" thickBot="1">
+    <row r="65" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C65" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15" thickBot="1">
+    <row r="70" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15" thickBot="1">
+    <row r="71" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C71" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15" thickBot="1">
+    <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15" thickBot="1">
+    <row r="74" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C74" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="C77" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="20" t="s">
@@ -3450,7 +3472,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="C80" s="4" t="s">
         <v>35</v>
       </c>
@@ -3510,12 +3532,12 @@
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="82" spans="2:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B82" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="2:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E83" s="6" t="s">
         <v>161</v>
       </c>
@@ -3523,7 +3545,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="2:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
         <v>35</v>
       </c>
@@ -3538,6 +3560,97 @@
         <f>CONCATENATE(W83," ",E84,F84,G84,H84,I84,J84,K84,L84,M84,N84,O84,P84,Q84,R84,,S84,T84,U84,V84)</f>
         <v xml:space="preserve">rails g migration add_retuning_comment_to_repairs  returningComment:text </v>
       </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B87" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J88" s="12"/>
+      <c r="K88" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="12"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A89" s="1"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M89" s="3"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="1" t="str">
+        <f>"rails g migration add_locationcols_to_companies" &amp;CONCATENATE(" ",E89,F89,G89,H89,I89,J89,K89,L89,M89,N89,O89,P89,Q89,R89,,S89,T89,U89,V89)</f>
+        <v xml:space="preserve">rails g migration add_locationcols_to_companies postcode:string address:string phoneNo:string destinationName:string </v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W90" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -3555,9 +3668,9 @@
       <selection activeCell="C1" sqref="C1:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -3602,7 +3715,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.25">
+    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -3668,7 +3781,7 @@
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
         <v>131</v>
       </c>
@@ -3691,52 +3804,52 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I15" t="s">
         <v>132</v>
       </c>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -19,8 +19,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>0171702</author>
+  </authors>
+  <commentList>
+    <comment ref="M30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>0171702:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+注文元名を入力する
+いったん名前のみ</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1217,12 +1254,133 @@
     <t>rails destroy scaffold location</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>引合</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Inquiry</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>拠点コード</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>元受</t>
+    <rPh sb="0" eb="2">
+      <t>モトウケ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>機体No</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>設置先コード</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>placeCode</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>branchCode</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>machineNo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エンジン運転時間</t>
+  </si>
+  <si>
+    <t>試運転日</t>
+  </si>
+  <si>
+    <t>timeOfRunning</t>
+  </si>
+  <si>
+    <t>dayOfTest</t>
+  </si>
+  <si>
+    <t>orderer</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>loginUserId</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログイン担当者</t>
+    <rPh sb="4" eb="7">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>changeComment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント(交換理由)</t>
+    <rPh sb="5" eb="7">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:integer </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:string </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:date </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1470,21 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1717,12 +1890,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T77" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W91" sqref="W91"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1737,326 +1908,328 @@
     <col min="9" max="9" width="11.5" style="6" customWidth="1"/>
     <col min="10" max="10" width="9" style="6"/>
     <col min="11" max="11" width="11.5" style="6" customWidth="1"/>
-    <col min="12" max="23" width="9" style="6"/>
-    <col min="24" max="256" width="9" style="1"/>
-    <col min="257" max="257" width="23.125" style="1" customWidth="1"/>
-    <col min="258" max="258" width="12" style="1" customWidth="1"/>
-    <col min="259" max="259" width="23.75" style="1" customWidth="1"/>
-    <col min="260" max="260" width="2.625" style="1" customWidth="1"/>
-    <col min="261" max="512" width="9" style="1"/>
-    <col min="513" max="513" width="23.125" style="1" customWidth="1"/>
-    <col min="514" max="514" width="12" style="1" customWidth="1"/>
-    <col min="515" max="515" width="23.75" style="1" customWidth="1"/>
-    <col min="516" max="516" width="2.625" style="1" customWidth="1"/>
-    <col min="517" max="768" width="9" style="1"/>
-    <col min="769" max="769" width="23.125" style="1" customWidth="1"/>
-    <col min="770" max="770" width="12" style="1" customWidth="1"/>
-    <col min="771" max="771" width="23.75" style="1" customWidth="1"/>
-    <col min="772" max="772" width="2.625" style="1" customWidth="1"/>
-    <col min="773" max="1024" width="9" style="1"/>
-    <col min="1025" max="1025" width="23.125" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="12" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="23.75" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="2.625" style="1" customWidth="1"/>
-    <col min="1029" max="1280" width="9" style="1"/>
-    <col min="1281" max="1281" width="23.125" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="12" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="23.75" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="2.625" style="1" customWidth="1"/>
-    <col min="1285" max="1536" width="9" style="1"/>
-    <col min="1537" max="1537" width="23.125" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="12" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="23.75" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="2.625" style="1" customWidth="1"/>
-    <col min="1541" max="1792" width="9" style="1"/>
-    <col min="1793" max="1793" width="23.125" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="12" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="23.75" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="2.625" style="1" customWidth="1"/>
-    <col min="1797" max="2048" width="9" style="1"/>
-    <col min="2049" max="2049" width="23.125" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="12" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="23.75" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="2.625" style="1" customWidth="1"/>
-    <col min="2053" max="2304" width="9" style="1"/>
-    <col min="2305" max="2305" width="23.125" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="12" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="23.75" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="2.625" style="1" customWidth="1"/>
-    <col min="2309" max="2560" width="9" style="1"/>
-    <col min="2561" max="2561" width="23.125" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="12" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="23.75" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="2.625" style="1" customWidth="1"/>
-    <col min="2565" max="2816" width="9" style="1"/>
-    <col min="2817" max="2817" width="23.125" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="12" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="23.75" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="2.625" style="1" customWidth="1"/>
-    <col min="2821" max="3072" width="9" style="1"/>
-    <col min="3073" max="3073" width="23.125" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="12" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="23.75" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="2.625" style="1" customWidth="1"/>
-    <col min="3077" max="3328" width="9" style="1"/>
-    <col min="3329" max="3329" width="23.125" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="12" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="23.75" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="2.625" style="1" customWidth="1"/>
-    <col min="3333" max="3584" width="9" style="1"/>
-    <col min="3585" max="3585" width="23.125" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="12" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="23.75" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="2.625" style="1" customWidth="1"/>
-    <col min="3589" max="3840" width="9" style="1"/>
-    <col min="3841" max="3841" width="23.125" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="12" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="23.75" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="2.625" style="1" customWidth="1"/>
-    <col min="3845" max="4096" width="9" style="1"/>
-    <col min="4097" max="4097" width="23.125" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="12" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="23.75" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="2.625" style="1" customWidth="1"/>
-    <col min="4101" max="4352" width="9" style="1"/>
-    <col min="4353" max="4353" width="23.125" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="12" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="23.75" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="2.625" style="1" customWidth="1"/>
-    <col min="4357" max="4608" width="9" style="1"/>
-    <col min="4609" max="4609" width="23.125" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="12" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="23.75" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="2.625" style="1" customWidth="1"/>
-    <col min="4613" max="4864" width="9" style="1"/>
-    <col min="4865" max="4865" width="23.125" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="12" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="23.75" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="2.625" style="1" customWidth="1"/>
-    <col min="4869" max="5120" width="9" style="1"/>
-    <col min="5121" max="5121" width="23.125" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="12" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="23.75" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="2.625" style="1" customWidth="1"/>
-    <col min="5125" max="5376" width="9" style="1"/>
-    <col min="5377" max="5377" width="23.125" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="12" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="23.75" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="2.625" style="1" customWidth="1"/>
-    <col min="5381" max="5632" width="9" style="1"/>
-    <col min="5633" max="5633" width="23.125" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="12" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="23.75" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="2.625" style="1" customWidth="1"/>
-    <col min="5637" max="5888" width="9" style="1"/>
-    <col min="5889" max="5889" width="23.125" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="12" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="23.75" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="2.625" style="1" customWidth="1"/>
-    <col min="5893" max="6144" width="9" style="1"/>
-    <col min="6145" max="6145" width="23.125" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="12" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="23.75" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="2.625" style="1" customWidth="1"/>
-    <col min="6149" max="6400" width="9" style="1"/>
-    <col min="6401" max="6401" width="23.125" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="12" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="23.75" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="2.625" style="1" customWidth="1"/>
-    <col min="6405" max="6656" width="9" style="1"/>
-    <col min="6657" max="6657" width="23.125" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="12" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="23.75" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="2.625" style="1" customWidth="1"/>
-    <col min="6661" max="6912" width="9" style="1"/>
-    <col min="6913" max="6913" width="23.125" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="12" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="23.75" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="2.625" style="1" customWidth="1"/>
-    <col min="6917" max="7168" width="9" style="1"/>
-    <col min="7169" max="7169" width="23.125" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="12" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="23.75" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="2.625" style="1" customWidth="1"/>
-    <col min="7173" max="7424" width="9" style="1"/>
-    <col min="7425" max="7425" width="23.125" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="12" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="23.75" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="2.625" style="1" customWidth="1"/>
-    <col min="7429" max="7680" width="9" style="1"/>
-    <col min="7681" max="7681" width="23.125" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="12" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="23.75" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="2.625" style="1" customWidth="1"/>
-    <col min="7685" max="7936" width="9" style="1"/>
-    <col min="7937" max="7937" width="23.125" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="12" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="23.75" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="2.625" style="1" customWidth="1"/>
-    <col min="7941" max="8192" width="9" style="1"/>
-    <col min="8193" max="8193" width="23.125" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="12" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="23.75" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="2.625" style="1" customWidth="1"/>
-    <col min="8197" max="8448" width="9" style="1"/>
-    <col min="8449" max="8449" width="23.125" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="12" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="23.75" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="2.625" style="1" customWidth="1"/>
-    <col min="8453" max="8704" width="9" style="1"/>
-    <col min="8705" max="8705" width="23.125" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="12" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="23.75" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="2.625" style="1" customWidth="1"/>
-    <col min="8709" max="8960" width="9" style="1"/>
-    <col min="8961" max="8961" width="23.125" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="12" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="23.75" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="2.625" style="1" customWidth="1"/>
-    <col min="8965" max="9216" width="9" style="1"/>
-    <col min="9217" max="9217" width="23.125" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="12" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="23.75" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="2.625" style="1" customWidth="1"/>
-    <col min="9221" max="9472" width="9" style="1"/>
-    <col min="9473" max="9473" width="23.125" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="12" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="23.75" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="2.625" style="1" customWidth="1"/>
-    <col min="9477" max="9728" width="9" style="1"/>
-    <col min="9729" max="9729" width="23.125" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="12" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="23.75" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="2.625" style="1" customWidth="1"/>
-    <col min="9733" max="9984" width="9" style="1"/>
-    <col min="9985" max="9985" width="23.125" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="12" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="23.75" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="2.625" style="1" customWidth="1"/>
-    <col min="9989" max="10240" width="9" style="1"/>
-    <col min="10241" max="10241" width="23.125" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="12" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="23.75" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="2.625" style="1" customWidth="1"/>
-    <col min="10245" max="10496" width="9" style="1"/>
-    <col min="10497" max="10497" width="23.125" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="12" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="23.75" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="2.625" style="1" customWidth="1"/>
-    <col min="10501" max="10752" width="9" style="1"/>
-    <col min="10753" max="10753" width="23.125" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="12" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="23.75" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="2.625" style="1" customWidth="1"/>
-    <col min="10757" max="11008" width="9" style="1"/>
-    <col min="11009" max="11009" width="23.125" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="12" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="23.75" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="2.625" style="1" customWidth="1"/>
-    <col min="11013" max="11264" width="9" style="1"/>
-    <col min="11265" max="11265" width="23.125" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="12" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="23.75" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="2.625" style="1" customWidth="1"/>
-    <col min="11269" max="11520" width="9" style="1"/>
-    <col min="11521" max="11521" width="23.125" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="12" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="23.75" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="2.625" style="1" customWidth="1"/>
-    <col min="11525" max="11776" width="9" style="1"/>
-    <col min="11777" max="11777" width="23.125" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="12" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="23.75" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="2.625" style="1" customWidth="1"/>
-    <col min="11781" max="12032" width="9" style="1"/>
-    <col min="12033" max="12033" width="23.125" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="12" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="23.75" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="2.625" style="1" customWidth="1"/>
-    <col min="12037" max="12288" width="9" style="1"/>
-    <col min="12289" max="12289" width="23.125" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="12" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="23.75" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="2.625" style="1" customWidth="1"/>
-    <col min="12293" max="12544" width="9" style="1"/>
-    <col min="12545" max="12545" width="23.125" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="12" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="23.75" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="2.625" style="1" customWidth="1"/>
-    <col min="12549" max="12800" width="9" style="1"/>
-    <col min="12801" max="12801" width="23.125" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="12" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="23.75" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="2.625" style="1" customWidth="1"/>
-    <col min="12805" max="13056" width="9" style="1"/>
-    <col min="13057" max="13057" width="23.125" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="12" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="23.75" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="2.625" style="1" customWidth="1"/>
-    <col min="13061" max="13312" width="9" style="1"/>
-    <col min="13313" max="13313" width="23.125" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="12" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="23.75" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="2.625" style="1" customWidth="1"/>
-    <col min="13317" max="13568" width="9" style="1"/>
-    <col min="13569" max="13569" width="23.125" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="12" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="23.75" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="2.625" style="1" customWidth="1"/>
-    <col min="13573" max="13824" width="9" style="1"/>
-    <col min="13825" max="13825" width="23.125" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="12" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="23.75" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="2.625" style="1" customWidth="1"/>
-    <col min="13829" max="14080" width="9" style="1"/>
-    <col min="14081" max="14081" width="23.125" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="12" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="23.75" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="2.625" style="1" customWidth="1"/>
-    <col min="14085" max="14336" width="9" style="1"/>
-    <col min="14337" max="14337" width="23.125" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="12" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="23.75" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="2.625" style="1" customWidth="1"/>
-    <col min="14341" max="14592" width="9" style="1"/>
-    <col min="14593" max="14593" width="23.125" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="12" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="23.75" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="2.625" style="1" customWidth="1"/>
-    <col min="14597" max="14848" width="9" style="1"/>
-    <col min="14849" max="14849" width="23.125" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="12" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="23.75" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="2.625" style="1" customWidth="1"/>
-    <col min="14853" max="15104" width="9" style="1"/>
-    <col min="15105" max="15105" width="23.125" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="12" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="23.75" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="2.625" style="1" customWidth="1"/>
-    <col min="15109" max="15360" width="9" style="1"/>
-    <col min="15361" max="15361" width="23.125" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="12" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="23.75" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="2.625" style="1" customWidth="1"/>
-    <col min="15365" max="15616" width="9" style="1"/>
-    <col min="15617" max="15617" width="23.125" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="12" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="23.75" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="2.625" style="1" customWidth="1"/>
-    <col min="15621" max="15872" width="9" style="1"/>
-    <col min="15873" max="15873" width="23.125" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="12" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="23.75" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="2.625" style="1" customWidth="1"/>
-    <col min="15877" max="16128" width="9" style="1"/>
-    <col min="16129" max="16129" width="23.125" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="12" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="23.75" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="2.625" style="1" customWidth="1"/>
-    <col min="16133" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="9" style="6"/>
+    <col min="13" max="13" width="11.125" style="6" customWidth="1"/>
+    <col min="14" max="25" width="9" style="6"/>
+    <col min="26" max="258" width="9" style="1"/>
+    <col min="259" max="259" width="23.125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="12" style="1" customWidth="1"/>
+    <col min="261" max="261" width="23.75" style="1" customWidth="1"/>
+    <col min="262" max="262" width="2.625" style="1" customWidth="1"/>
+    <col min="263" max="514" width="9" style="1"/>
+    <col min="515" max="515" width="23.125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="12" style="1" customWidth="1"/>
+    <col min="517" max="517" width="23.75" style="1" customWidth="1"/>
+    <col min="518" max="518" width="2.625" style="1" customWidth="1"/>
+    <col min="519" max="770" width="9" style="1"/>
+    <col min="771" max="771" width="23.125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="12" style="1" customWidth="1"/>
+    <col min="773" max="773" width="23.75" style="1" customWidth="1"/>
+    <col min="774" max="774" width="2.625" style="1" customWidth="1"/>
+    <col min="775" max="1026" width="9" style="1"/>
+    <col min="1027" max="1027" width="23.125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="12" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="23.75" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="2.625" style="1" customWidth="1"/>
+    <col min="1031" max="1282" width="9" style="1"/>
+    <col min="1283" max="1283" width="23.125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="12" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="23.75" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="2.625" style="1" customWidth="1"/>
+    <col min="1287" max="1538" width="9" style="1"/>
+    <col min="1539" max="1539" width="23.125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="12" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="23.75" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="2.625" style="1" customWidth="1"/>
+    <col min="1543" max="1794" width="9" style="1"/>
+    <col min="1795" max="1795" width="23.125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="12" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="23.75" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="2.625" style="1" customWidth="1"/>
+    <col min="1799" max="2050" width="9" style="1"/>
+    <col min="2051" max="2051" width="23.125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="12" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="23.75" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="2.625" style="1" customWidth="1"/>
+    <col min="2055" max="2306" width="9" style="1"/>
+    <col min="2307" max="2307" width="23.125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="12" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="23.75" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="2.625" style="1" customWidth="1"/>
+    <col min="2311" max="2562" width="9" style="1"/>
+    <col min="2563" max="2563" width="23.125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="12" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="23.75" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="2.625" style="1" customWidth="1"/>
+    <col min="2567" max="2818" width="9" style="1"/>
+    <col min="2819" max="2819" width="23.125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="12" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="23.75" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="2.625" style="1" customWidth="1"/>
+    <col min="2823" max="3074" width="9" style="1"/>
+    <col min="3075" max="3075" width="23.125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="12" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="23.75" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="2.625" style="1" customWidth="1"/>
+    <col min="3079" max="3330" width="9" style="1"/>
+    <col min="3331" max="3331" width="23.125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="12" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="23.75" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="2.625" style="1" customWidth="1"/>
+    <col min="3335" max="3586" width="9" style="1"/>
+    <col min="3587" max="3587" width="23.125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="12" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="23.75" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="2.625" style="1" customWidth="1"/>
+    <col min="3591" max="3842" width="9" style="1"/>
+    <col min="3843" max="3843" width="23.125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="12" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="23.75" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="2.625" style="1" customWidth="1"/>
+    <col min="3847" max="4098" width="9" style="1"/>
+    <col min="4099" max="4099" width="23.125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="12" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="23.75" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="2.625" style="1" customWidth="1"/>
+    <col min="4103" max="4354" width="9" style="1"/>
+    <col min="4355" max="4355" width="23.125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="12" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="23.75" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="2.625" style="1" customWidth="1"/>
+    <col min="4359" max="4610" width="9" style="1"/>
+    <col min="4611" max="4611" width="23.125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="12" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="23.75" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="2.625" style="1" customWidth="1"/>
+    <col min="4615" max="4866" width="9" style="1"/>
+    <col min="4867" max="4867" width="23.125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="12" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="23.75" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="2.625" style="1" customWidth="1"/>
+    <col min="4871" max="5122" width="9" style="1"/>
+    <col min="5123" max="5123" width="23.125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="12" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="23.75" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="2.625" style="1" customWidth="1"/>
+    <col min="5127" max="5378" width="9" style="1"/>
+    <col min="5379" max="5379" width="23.125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="12" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="23.75" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="2.625" style="1" customWidth="1"/>
+    <col min="5383" max="5634" width="9" style="1"/>
+    <col min="5635" max="5635" width="23.125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="12" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="23.75" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="2.625" style="1" customWidth="1"/>
+    <col min="5639" max="5890" width="9" style="1"/>
+    <col min="5891" max="5891" width="23.125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="12" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="23.75" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="2.625" style="1" customWidth="1"/>
+    <col min="5895" max="6146" width="9" style="1"/>
+    <col min="6147" max="6147" width="23.125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="12" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="23.75" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="2.625" style="1" customWidth="1"/>
+    <col min="6151" max="6402" width="9" style="1"/>
+    <col min="6403" max="6403" width="23.125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="12" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="23.75" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="2.625" style="1" customWidth="1"/>
+    <col min="6407" max="6658" width="9" style="1"/>
+    <col min="6659" max="6659" width="23.125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="12" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="23.75" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="2.625" style="1" customWidth="1"/>
+    <col min="6663" max="6914" width="9" style="1"/>
+    <col min="6915" max="6915" width="23.125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="12" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="23.75" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="2.625" style="1" customWidth="1"/>
+    <col min="6919" max="7170" width="9" style="1"/>
+    <col min="7171" max="7171" width="23.125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="12" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="23.75" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="2.625" style="1" customWidth="1"/>
+    <col min="7175" max="7426" width="9" style="1"/>
+    <col min="7427" max="7427" width="23.125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="12" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="23.75" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="2.625" style="1" customWidth="1"/>
+    <col min="7431" max="7682" width="9" style="1"/>
+    <col min="7683" max="7683" width="23.125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="12" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="23.75" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="2.625" style="1" customWidth="1"/>
+    <col min="7687" max="7938" width="9" style="1"/>
+    <col min="7939" max="7939" width="23.125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="12" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="23.75" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="2.625" style="1" customWidth="1"/>
+    <col min="7943" max="8194" width="9" style="1"/>
+    <col min="8195" max="8195" width="23.125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="12" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="23.75" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="2.625" style="1" customWidth="1"/>
+    <col min="8199" max="8450" width="9" style="1"/>
+    <col min="8451" max="8451" width="23.125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="12" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="23.75" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="2.625" style="1" customWidth="1"/>
+    <col min="8455" max="8706" width="9" style="1"/>
+    <col min="8707" max="8707" width="23.125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="12" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="23.75" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="2.625" style="1" customWidth="1"/>
+    <col min="8711" max="8962" width="9" style="1"/>
+    <col min="8963" max="8963" width="23.125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="12" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="23.75" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="2.625" style="1" customWidth="1"/>
+    <col min="8967" max="9218" width="9" style="1"/>
+    <col min="9219" max="9219" width="23.125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="12" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="23.75" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="2.625" style="1" customWidth="1"/>
+    <col min="9223" max="9474" width="9" style="1"/>
+    <col min="9475" max="9475" width="23.125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="12" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="23.75" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="2.625" style="1" customWidth="1"/>
+    <col min="9479" max="9730" width="9" style="1"/>
+    <col min="9731" max="9731" width="23.125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="12" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="23.75" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="2.625" style="1" customWidth="1"/>
+    <col min="9735" max="9986" width="9" style="1"/>
+    <col min="9987" max="9987" width="23.125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="12" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="23.75" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="2.625" style="1" customWidth="1"/>
+    <col min="9991" max="10242" width="9" style="1"/>
+    <col min="10243" max="10243" width="23.125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="12" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="23.75" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="2.625" style="1" customWidth="1"/>
+    <col min="10247" max="10498" width="9" style="1"/>
+    <col min="10499" max="10499" width="23.125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="12" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="23.75" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="2.625" style="1" customWidth="1"/>
+    <col min="10503" max="10754" width="9" style="1"/>
+    <col min="10755" max="10755" width="23.125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="12" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="23.75" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="2.625" style="1" customWidth="1"/>
+    <col min="10759" max="11010" width="9" style="1"/>
+    <col min="11011" max="11011" width="23.125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="12" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="23.75" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="2.625" style="1" customWidth="1"/>
+    <col min="11015" max="11266" width="9" style="1"/>
+    <col min="11267" max="11267" width="23.125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="12" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="23.75" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="2.625" style="1" customWidth="1"/>
+    <col min="11271" max="11522" width="9" style="1"/>
+    <col min="11523" max="11523" width="23.125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="12" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="23.75" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="2.625" style="1" customWidth="1"/>
+    <col min="11527" max="11778" width="9" style="1"/>
+    <col min="11779" max="11779" width="23.125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="12" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="23.75" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="2.625" style="1" customWidth="1"/>
+    <col min="11783" max="12034" width="9" style="1"/>
+    <col min="12035" max="12035" width="23.125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="12" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="23.75" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="2.625" style="1" customWidth="1"/>
+    <col min="12039" max="12290" width="9" style="1"/>
+    <col min="12291" max="12291" width="23.125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="12" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="23.75" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="2.625" style="1" customWidth="1"/>
+    <col min="12295" max="12546" width="9" style="1"/>
+    <col min="12547" max="12547" width="23.125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="12" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="23.75" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="2.625" style="1" customWidth="1"/>
+    <col min="12551" max="12802" width="9" style="1"/>
+    <col min="12803" max="12803" width="23.125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="12" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="23.75" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="2.625" style="1" customWidth="1"/>
+    <col min="12807" max="13058" width="9" style="1"/>
+    <col min="13059" max="13059" width="23.125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="12" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="23.75" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="2.625" style="1" customWidth="1"/>
+    <col min="13063" max="13314" width="9" style="1"/>
+    <col min="13315" max="13315" width="23.125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="12" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="23.75" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="2.625" style="1" customWidth="1"/>
+    <col min="13319" max="13570" width="9" style="1"/>
+    <col min="13571" max="13571" width="23.125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="12" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="23.75" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="2.625" style="1" customWidth="1"/>
+    <col min="13575" max="13826" width="9" style="1"/>
+    <col min="13827" max="13827" width="23.125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="12" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="23.75" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="2.625" style="1" customWidth="1"/>
+    <col min="13831" max="14082" width="9" style="1"/>
+    <col min="14083" max="14083" width="23.125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="12" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="23.75" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="2.625" style="1" customWidth="1"/>
+    <col min="14087" max="14338" width="9" style="1"/>
+    <col min="14339" max="14339" width="23.125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="12" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="23.75" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="2.625" style="1" customWidth="1"/>
+    <col min="14343" max="14594" width="9" style="1"/>
+    <col min="14595" max="14595" width="23.125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="12" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="23.75" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="2.625" style="1" customWidth="1"/>
+    <col min="14599" max="14850" width="9" style="1"/>
+    <col min="14851" max="14851" width="23.125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="12" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="23.75" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="2.625" style="1" customWidth="1"/>
+    <col min="14855" max="15106" width="9" style="1"/>
+    <col min="15107" max="15107" width="23.125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="12" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="23.75" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="2.625" style="1" customWidth="1"/>
+    <col min="15111" max="15362" width="9" style="1"/>
+    <col min="15363" max="15363" width="23.125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="12" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="23.75" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="2.625" style="1" customWidth="1"/>
+    <col min="15367" max="15618" width="9" style="1"/>
+    <col min="15619" max="15619" width="23.125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="12" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="23.75" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="2.625" style="1" customWidth="1"/>
+    <col min="15623" max="15874" width="9" style="1"/>
+    <col min="15875" max="15875" width="23.125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="12" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="23.75" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="2.625" style="1" customWidth="1"/>
+    <col min="15879" max="16130" width="9" style="1"/>
+    <col min="16131" max="16131" width="23.125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="12" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="23.75" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="2.625" style="1" customWidth="1"/>
+    <col min="16135" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2088,15 +2261,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
@@ -2121,8 +2294,10 @@
       <c r="T4" s="12"/>
       <c r="U4" s="10"/>
       <c r="V4" s="12"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W4" s="10"/>
+      <c r="X4" s="12"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2161,12 +2336,14 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="1" t="str">
-        <f>CONCATENATE($A$1,C5," ",E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5,Q5,R5,,S5,T5,U5,V5)</f>
+      <c r="W5" s="3"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="1" t="str">
+        <f>CONCATENATE($A$1,C5," ",E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5,Q5,R5,S5,T5,U5,V5,W5,X5)</f>
         <v xml:space="preserve">rails generate scaffold Company name:string category:string </v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
@@ -2195,8 +2372,10 @@
       <c r="T6" s="12"/>
       <c r="U6" s="10"/>
       <c r="V6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W6" s="10"/>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2243,12 +2422,14 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="1" t="str">
-        <f>CONCATENATE($A$1,C7," ",E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7,Q7,R7,,S7,T7,U7,V7)</f>
+      <c r="W7" s="3"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="1" t="str">
+        <f>CONCATENATE($A$1,C7," ",E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7,Q7,R7,S7,T7,U7,V7,W7,X7)</f>
         <v xml:space="preserve">rails generate scaffold Location postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
@@ -2271,8 +2452,10 @@
       <c r="T8" s="12"/>
       <c r="U8" s="10"/>
       <c r="V8" s="12"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W8" s="10"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2305,12 +2488,14 @@
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="1" t="str">
-        <f>CONCATENATE($A$1,C9," ",E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9,Q9,R9,,S9,T9,U9,V9)</f>
+      <c r="W9" s="3"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="1" t="str">
+        <f>CONCATENATE($A$1,C9," ",E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9,Q9,R9,S9,T9,U9,V9,W9,X9)</f>
         <v xml:space="preserve">rails generate scaffold Enginestatus name:string </v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
@@ -2333,8 +2518,10 @@
       <c r="T10" s="12"/>
       <c r="U10" s="10"/>
       <c r="V10" s="12"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W10" s="10"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2367,12 +2554,14 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="1" t="str">
-        <f>CONCATENATE($A$1,C11," ",E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11,Q11,R11,,S11,T11,U11,V11)</f>
+      <c r="W11" s="3"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="1" t="str">
+        <f>CONCATENATE($A$1,C11," ",E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11,Q11,R11,S11,T11,U11,V11,W11,X11)</f>
         <v xml:space="preserve">rails generate scaffold Businessstatus name:string </v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
@@ -2397,8 +2586,10 @@
       <c r="T12" s="12"/>
       <c r="U12" s="10"/>
       <c r="V12" s="12"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W12" s="10"/>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -2435,12 +2626,14 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="1" t="str">
-        <f>CONCATENATE($A$1,C13," ",E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13,Q13,R13,,S13,T13,U13,V13)</f>
+      <c r="W13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="1" t="str">
+        <f>CONCATENATE($A$1,C13," ",E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13,Q13,R13,S13,T13,U13,V13,W13,X13)</f>
         <v xml:space="preserve">rails generate scaffold Engine engineModelName:string salesModelName:string </v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
@@ -2465,8 +2658,10 @@
       <c r="T14" s="12"/>
       <c r="U14" s="10"/>
       <c r="V14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W14" s="10"/>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,24 +2698,26 @@
       <c r="T15" s="2"/>
       <c r="U15" s="3"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="1" t="str">
-        <f>CONCATENATE($A$1,C15," ",E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15,Q15,R15,,S15,T15,U15,V15)</f>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="1" t="str">
+        <f>CONCATENATE($A$1,C15," ",E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15,Q15,R15,S15,T15,U15,V15,W15,X15)</f>
         <v xml:space="preserve">rails generate scaffold Enginemodel modelcode:string name:string </v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="F16" s="14"/>
       <c r="H16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:37" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
@@ -2547,8 +2744,10 @@
       <c r="T18" s="12"/>
       <c r="U18" s="10"/>
       <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="W18" s="10"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2589,12 +2788,14 @@
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="1" t="str">
-        <f>CONCATENATE($A$1,C19," ",E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19,Q19,R19,,S19,T19,U19,V19)</f>
+      <c r="W19" s="3"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="1" t="str">
+        <f>CONCATENATE($A$1,C19," ",E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19,Q19,R19,S19,T19,U19,V19,W19,X19)</f>
         <v xml:space="preserve">rails generate scaffold Returning returnDate:date returningComment:text sendingComment:text </v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>0</v>
@@ -2621,8 +2822,10 @@
       <c r="T20" s="12"/>
       <c r="U20" s="10"/>
       <c r="V20" s="12"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="W20" s="10"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -2661,12 +2864,14 @@
       <c r="T21" s="2"/>
       <c r="U21" s="3"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="1" t="str">
-        <f>CONCATENATE($A$1,C21," ",E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21,Q21,R21,,S21,T21,U21,V21)</f>
+      <c r="W21" s="3"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="1" t="str">
+        <f>CONCATENATE($A$1,C21," ",E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21,Q21,R21,S21,T21,U21,V21,W21,X21)</f>
         <v xml:space="preserve">rails generate scaffold Arrival arrivalDate:date arrivalComment:text </v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="20" t="s">
@@ -2701,8 +2906,10 @@
       <c r="T22" s="12"/>
       <c r="U22" s="10"/>
       <c r="V22" s="12"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="W22" s="10"/>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2759,12 +2966,14 @@
       <c r="T23" s="2"/>
       <c r="U23" s="3"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="1" t="str">
-        <f>CONCATENATE($A$1,C23," ",E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23,Q23,R23,,S23,T23,U23,V23)</f>
+      <c r="W23" s="3"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="1" t="str">
+        <f>CONCATENATE($A$1,C23," ",E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23,Q23,R23,S23,T23,U23,V23,W23,X23)</f>
         <v xml:space="preserve">rails generate scaffold Repair issueNo:string issueDate:date arriveDate:date startDate:date finishDate:date beforeComment:text afterComment:text </v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="10" t="s">
@@ -2801,8 +3010,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="3"/>
       <c r="V24" s="2"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="2"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -2815,8 +3024,10 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2875,12 +3086,12 @@
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="1" t="str">
-        <f>CONCATENATE($A$1,C25," ",E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25,Q25,R25,,S25,T25,U25,V25)</f>
+      <c r="W25" s="10"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="1" t="str">
+        <f>CONCATENATE($A$1,C25," ",E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25,P25,Q25,R25,S25,T25,U25,V25,W25,X25)</f>
         <v xml:space="preserve">rails generate scaffold Repairorder issueNo:string issueDate:date orderNo:string constructionNo:string otherBrandPartsArrivealDate:date returnDate:date returningComment:text sendingComment:text </v>
       </c>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
@@ -2893,8 +3104,10 @@
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
-    </row>
-    <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+    </row>
+    <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -2915,8 +3128,8 @@
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
       <c r="V26" s="2"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="2"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -2929,8 +3142,10 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -2955,9 +3170,11 @@
       <c r="T27" s="2"/>
       <c r="U27" s="3"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="8"/>
-    </row>
-    <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="3"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
         <v>0</v>
@@ -2980,12 +3197,14 @@
       <c r="T28" s="12"/>
       <c r="U28" s="10"/>
       <c r="V28" s="12"/>
-      <c r="W28" s="1" t="str">
-        <f>CONCATENATE($A$1,C28," ",E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28,P28,Q28,R28,,S28,T28,U28,V28)</f>
+      <c r="W28" s="10"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="1" t="str">
+        <f>CONCATENATE($A$1,C28," ",E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28,P28,Q28,R28,S28,T28,U28,V28,W28,X28)</f>
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -3014,90 +3233,153 @@
       <c r="T29" s="2"/>
       <c r="U29" s="3"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="8"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="W29" s="3"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="1" t="str">
-        <f>CONCATENATE($A$1,C30," ",E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30,P30,Q30,R30,,S30,T30,U30,V30)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
+      <c r="K30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T30" s="5"/>
+      <c r="U30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="V30" s="5"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="8"/>
-    </row>
-    <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W31" s="10"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="1" t="str">
+        <f>CONCATENATE($A$1,C31," ",E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31,P31,Q31,R31,S31,T31,U31,V31,W31,X31)</f>
+        <v xml:space="preserve">rails generate scaffold Inquiry loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer dayOfTest:date changeComment:text </v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="1" t="str">
-        <f>CONCATENATE($A$1,C32," ",E32,F32,G32,H32,I32,J32,K32,L32,M32,N32,O32,P32,Q32,R32,,S32,T32,U32,V32)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="4"/>
@@ -3120,9 +3402,14 @@
       <c r="T33" s="2"/>
       <c r="U33" s="3"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="8"/>
-    </row>
-    <row r="34" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W33" s="3"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="1" t="str">
+        <f>CONCATENATE($A$1,C33," ",E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33,P33,Q33,R33,S33,T33,U33,V33,W33,X33)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -3143,12 +3430,11 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
       <c r="V34" s="12"/>
-      <c r="W34" s="1" t="str">
-        <f>CONCATENATE($A$1,C34," ",E34,F34,G34,H34,I34,J34,K34,L34,M34,N34,O34,P34,Q34,R34,,S34,T34,U34,V34)</f>
-        <v xml:space="preserve">rails generate scaffold  </v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W34" s="10"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
@@ -3171,9 +3457,14 @@
       <c r="T35" s="2"/>
       <c r="U35" s="3"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="8"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W35" s="3"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="1" t="str">
+        <f>CONCATENATE($A$1,C35," ",E35,F35,G35,H35,I35,J35,K35,L35,M35,N35,O35,P35,Q35,R35,S35,T35,U35,V35,W35,X35)</f>
+        <v xml:space="preserve">rails generate scaffold  </v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
@@ -3196,67 +3487,69 @@
       <c r="T36" s="2"/>
       <c r="U36" s="3"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="1" t="str">
-        <f>CONCATENATE($A$1,C36," ",E36,F36,G36,H36,I36,J36,K36,L36,M36,N36,O36,P36,Q36,R36,,S36,T36,U36,V36)</f>
+      <c r="W36" s="3"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="1" t="str">
+        <f>CONCATENATE($A$1,C36," ",E36,F36,G36,H36,I36,J36,K36,L36,M36,N36,O36,P36,Q36,R36,S36,T36,U36,V36,W36,X36)</f>
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="D37" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W37" s="8"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W38" s="6" t="str">
-        <f>CONCATENATE($A$1,C38," ",E38,F38,G38,H38,I38,J38,K38,L38,M38,N38,O38,P38,Q38,R38,,S38,T38,U38,V38)</f>
+      <c r="Y38" s="1" t="str">
+        <f>CONCATENATE($A$1,C38," ",E38,F38,G38,H38,I38,J38,K38,L38,M38,N38,O38,P38,Q38,R38,S38,T38,U38,V38,W38,X38)</f>
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="Y39" s="13"/>
+    </row>
+    <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C40" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="W40" s="6" t="str">
-        <f>CONCATENATE($A$1,C41," ",E40,F40,G40,H40,I40,J40,K40,L40,M40,N40,O40,P40,Q40,R40,,S40,T40,U40,V40)</f>
-        <v xml:space="preserve">rails generate scaffold rails generate devise User </v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="1" t="str">
+        <f>CONCATENATE($A$1,C40," ",E40,F40,G40,H40,I40,J40,K40,L40,M40,N40,O40,P40,Q40,R40,S40,T40,U40,V40,W40,X40)</f>
+        <v xml:space="preserve">rails generate scaffold rails generate devise:install </v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C41" s="16" t="s">
         <v>80</v>
       </c>
       <c r="K41" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:23" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y41" s="13"/>
+    </row>
+    <row r="42" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C42" s="6" t="s">
         <v>81</v>
       </c>
       <c r="K42" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="W42" s="6" t="str">
-        <f>CONCATENATE($A$1,C42," ",E42,F42,G42,H42,I42,J42,K42,L42,M42,N42,O42,P42,Q42,R42,,S42,T42,U42,V42)</f>
+      <c r="Y42" s="1" t="str">
+        <f>CONCATENATE($A$1,C42," ",E42,F42,G42,H42,I42,J42,K42,L42,M42,N42,O42,P42,Q42,R42,S42,T42,U42,V42,W42,X42)</f>
         <v>rails generate scaffold rails g devise:views # =&gt; すべてテーブルの内容が tmp/fixtures/*.yml に抽出される</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -3264,12 +3557,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="K44" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>83</v>
       </c>
@@ -3277,12 +3570,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C46" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C47" s="17" t="s">
         <v>86</v>
       </c>
@@ -3290,7 +3583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C48" s="17" t="s">
         <v>85</v>
       </c>
@@ -3380,56 +3673,56 @@
       </c>
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C65" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C71" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C74" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C77" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="20" t="s">
@@ -3468,11 +3761,13 @@
       <c r="T79" s="12"/>
       <c r="U79" s="10"/>
       <c r="V79" s="12"/>
-      <c r="W79" t="s">
+      <c r="W79" s="10"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C80" s="4" t="s">
         <v>35</v>
       </c>
@@ -3527,25 +3822,27 @@
       </c>
       <c r="U80" s="3"/>
       <c r="V80" s="2"/>
-      <c r="W80" s="1" t="str">
-        <f>CONCATENATE(W79," ",E80,F80,G80,H80,I80,J80,K80,L80,M80,N80,O80,P80,Q80,R80,,S80,T80,U80,V80)</f>
+      <c r="W80" s="3"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="1" t="str">
+        <f>CONCATENATE(Y79," ",E80,F80,G80,H80,I80,J80,K80,L80,M80,N80,O80,P80,Q80,R80,,S80,T80,U80,V80,W80,X80)</f>
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B82" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
       <c r="E83" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="W83" t="s">
+      <c r="Y83" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
         <v>35</v>
       </c>
@@ -3556,17 +3853,17 @@
       <c r="F84" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="W84" s="1" t="str">
-        <f>CONCATENATE(W83," ",E84,F84,G84,H84,I84,J84,K84,L84,M84,N84,O84,P84,Q84,R84,,S84,T84,U84,V84)</f>
-        <v xml:space="preserve">rails g migration add_retuning_comment_to_repairs  returningComment:text </v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y84" s="1" t="str">
+        <f>CONCATENATE(W84," ",E84,F84,G84,H84,I84,J84,K84,L84,M84,N84,O84,P84,Q84,R84,,S84,T84,U84,V84,W84,X84)</f>
+        <v xml:space="preserve"> returningComment:text </v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B87" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10" t="s">
@@ -3595,8 +3892,10 @@
       <c r="T88" s="12"/>
       <c r="U88" s="10"/>
       <c r="V88" s="12"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W88" s="10"/>
+      <c r="X88" s="12"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="15"/>
       <c r="C89" s="4" t="s">
@@ -3639,24 +3938,27 @@
       <c r="T89" s="2"/>
       <c r="U89" s="3"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="1" t="str">
-        <f>"rails g migration add_locationcols_to_companies" &amp;CONCATENATE(" ",E89,F89,G89,H89,I89,J89,K89,L89,M89,N89,O89,P89,Q89,R89,,S89,T89,U89,V89)</f>
+      <c r="W89" s="3"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="1" t="str">
+        <f>"rails g migration add_locationcols_to_companies" &amp;CONCATENATE(" ",E89,F89,G89,H89,I89,J89,K89,L89,M89,N89,O89,P89,Q89,R89,,S89,T89,U89,V89,W89,X89)</f>
         <v xml:space="preserve">rails g migration add_locationcols_to_companies postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="W90" s="6" t="s">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y90" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="W91"/>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="8040"/>
+    <workbookView minimized="1" xWindow="600" yWindow="90" windowWidth="19395" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="r2" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,66 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q94" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>0171702:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+注文元名を入力する
+いったん名前のみ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q97" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>0171702:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+注文元名を入力する
+いったん名前のみ</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="200">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1373,6 +1427,96 @@
   </si>
   <si>
     <t>userId</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Repairorder</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>引合発生日</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハッセイビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>inquiryDate</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:date </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>送付先コード</t>
+    <rPh sb="0" eb="3">
+      <t>ソウフサキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sendingCompanyCode</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>希望納期</t>
+    <rPh sb="0" eb="2">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノウキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>deliveryDate</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注クラスを作り直してみる（引合と受注の情報）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>businessstatus_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>流通ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>リュウツウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:integer </t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1891,9 +2035,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM91"/>
+  <dimension ref="A1:AM100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3829,12 +3975,12 @@
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B82" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E83" s="6" t="s">
         <v>161</v>
       </c>
@@ -3842,7 +3988,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
         <v>35</v>
       </c>
@@ -3858,12 +4004,12 @@
         <v xml:space="preserve"> returningComment:text </v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B87" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:26" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10" t="s">
@@ -3895,7 +4041,7 @@
       <c r="W88" s="10"/>
       <c r="X88" s="12"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="15"/>
       <c r="C89" s="4" t="s">
@@ -3945,13 +4091,218 @@
         <v xml:space="preserve">rails g migration add_locationcols_to_companies postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Y90" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Y91"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B92" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L94" s="5"/>
+      <c r="M94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N94" s="5"/>
+      <c r="O94" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R94" s="5"/>
+      <c r="S94" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T94" s="5"/>
+      <c r="U94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="V94" s="5"/>
+      <c r="W94" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="5"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="M95" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O95" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q95" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="R95" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S95" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="T95" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="U95" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="V95" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="W95" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="X95" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="5"/>
+    </row>
+    <row r="97" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E97" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L97" s="5"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="5"/>
+    </row>
+    <row r="98" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E98" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="5"/>
+    </row>
+    <row r="100" spans="5:26" x14ac:dyDescent="0.15">
+      <c r="E100" s="6" t="str">
+        <f>CONCATENATE($A$1,C95," ",E95,F95,G95,H95,I95,J95,K95,L95,M95,N95,O95,P95,Q95,R95,S95,T95,U95,V95,W95,X95,Y95,Z95) &amp; CONCATENATE(E98,F98,G98,H98,I98,J98,K98,L98)</f>
+        <v xml:space="preserve">rails generate scaffold Repairorder issueNo:string inquiryDate:date loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer changeComment:text sendingCompanyCode:integer sendingComment:text deliveryDate:date businessstatus_id:integer </v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="600" yWindow="90" windowWidth="19395" windowHeight="8040"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="r2" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="202">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1430,10 +1430,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Repairorder</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>引合発生日</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -1516,7 +1512,28 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t xml:space="preserve">:integer </t>
+    <t>※orderは予約語</t>
+    <rPh sb="7" eb="10">
+      <t>ヨヤクゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注発生日</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハッセイビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>orderDate</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Engineorder</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2037,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4101,7 +4118,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B92" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.15">
@@ -4116,7 +4133,7 @@
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="3" t="s">
@@ -4158,9 +4175,11 @@
       <c r="A95" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C95" s="4" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="3" t="s">
@@ -4170,10 +4189,10 @@
         <v>1</v>
       </c>
       <c r="G95" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H95" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>180</v>
@@ -4228,22 +4247,24 @@
     </row>
     <row r="97" spans="5:26" x14ac:dyDescent="0.15">
       <c r="E97" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F97" s="5"/>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J97" s="5"/>
+      <c r="J97" s="2"/>
       <c r="K97" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L97" s="5"/>
-      <c r="M97" s="3"/>
+      <c r="M97" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="N97" s="5"/>
       <c r="O97" s="3"/>
       <c r="P97" s="5"/>
@@ -4260,31 +4281,35 @@
     </row>
     <row r="98" spans="5:26" x14ac:dyDescent="0.15">
       <c r="E98" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F98" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H98" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="J98" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I98" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J98" s="11" t="s">
-        <v>191</v>
-      </c>
       <c r="K98" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="M98" s="10"/>
-      <c r="N98" s="11"/>
+        <v>186</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="O98" s="10"/>
       <c r="P98" s="11"/>
       <c r="Q98" s="10"/>
@@ -4301,7 +4326,7 @@
     <row r="100" spans="5:26" x14ac:dyDescent="0.15">
       <c r="E100" s="6" t="str">
         <f>CONCATENATE($A$1,C95," ",E95,F95,G95,H95,I95,J95,K95,L95,M95,N95,O95,P95,Q95,R95,S95,T95,U95,V95,W95,X95,Y95,Z95) &amp; CONCATENATE(E98,F98,G98,H98,I98,J98,K98,L98)</f>
-        <v xml:space="preserve">rails generate scaffold Repairorder issueNo:string inquiryDate:date loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer changeComment:text sendingCompanyCode:integer sendingComment:text deliveryDate:date businessstatus_id:integer </v>
+        <v xml:space="preserve">rails generate scaffold Engineorder issueNo:string inquiryDate:date loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer changeComment:text orderDate:date sendingCompanyCode:integer sendingComment:text deliveryDate:date </v>
       </c>
     </row>
   </sheetData>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="203">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1529,6 +1529,10 @@
   </si>
   <si>
     <t>rake db:fixtures:load FIXTURES=businessstatuses,companies,engines,enginestatuses</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rake db:schema:load</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2050,7 +2054,7 @@
   <dimension ref="A1:AM100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3746,12 +3750,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="K49" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="17.25">
+    <row r="50" spans="1:12" ht="17.25">
       <c r="B50" s="6" t="s">
         <v>87</v>
       </c>
@@ -3759,20 +3763,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="C51" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12">
       <c r="C52" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="17.25">
+      <c r="L52" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.25">
       <c r="C53" s="6" t="s">
         <v>90</v>
       </c>
@@ -3780,52 +3787,52 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="A55" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1">
+    <row r="56" spans="1:12" ht="15" thickBot="1">
       <c r="B56" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1">
+    <row r="57" spans="1:12" ht="15" thickBot="1">
       <c r="C57" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" thickBot="1">
+    <row r="58" spans="1:12" ht="15" thickBot="1">
       <c r="B58" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" thickBot="1">
+    <row r="59" spans="1:12" ht="15" thickBot="1">
       <c r="C59" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" thickBot="1">
+    <row r="60" spans="1:12" ht="15" thickBot="1">
       <c r="B60" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" thickBot="1">
+    <row r="61" spans="1:12" ht="15" thickBot="1">
       <c r="C61" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1">
+    <row r="62" spans="1:12" ht="15" thickBot="1">
       <c r="B62" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1">
+    <row r="63" spans="1:12" ht="15" thickBot="1">
       <c r="C63" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1">
+    <row r="64" spans="1:12" ht="15" thickBot="1">
       <c r="B64" s="6" t="s">
         <v>127</v>
       </c>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="211">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1535,12 +1535,182 @@
     <t>rake db:schema:load</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_invoice_no_to_engineorders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>invoice_no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:string</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_day_of_test_to_engineorders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>day_of_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:string</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注クラスに、送り状Noと試運転日を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シウンテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_shipped_date_to_engineorders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shipped_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:date</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_shipped_date_to_repairs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shipped_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:date</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_day_of_test_to_engineorders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>day_of_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:date</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration remove_day_of_test_from_engineorders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>day_of_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:string</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,6 +1818,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1711,7 +1887,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1746,6 +1922,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2051,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM100"/>
+  <dimension ref="A1:AM113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4247,7 +4426,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="97" spans="5:26">
+    <row r="97" spans="2:26">
       <c r="E97" s="3" t="s">
         <v>197</v>
       </c>
@@ -4281,7 +4460,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="5:26">
+    <row r="98" spans="2:26">
       <c r="E98" s="10" t="s">
         <v>198</v>
       </c>
@@ -4325,10 +4504,66 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="100" spans="5:26">
+    <row r="100" spans="2:26">
       <c r="E100" s="6" t="str">
         <f>CONCATENATE($A$1,C95," ",E95,F95,G95,H95,I95,J95,K95,L95,M95,N95,O95,P95,Q95,R95,S95,T95,U95,V95,W95,X95,Y95,Z95) &amp; CONCATENATE(E98,F98,G98,H98,I98,J98,K98,L98)</f>
         <v xml:space="preserve">rails generate scaffold Engineorder issueNo:string inquiryDate:date loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer changeComment:text orderDate:date sendingCompanyCode:integer sendingComment:text deliveryDate:date </v>
+      </c>
+    </row>
+    <row r="102" spans="2:26">
+      <c r="C102" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="2:26" ht="15" thickBot="1">
+      <c r="B103" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="2:26" ht="15" thickBot="1">
+      <c r="C104" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="2:26" ht="15" thickBot="1">
+      <c r="C105" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" ht="15" thickBot="1">
+      <c r="C106" s="17"/>
+    </row>
+    <row r="107" spans="2:26" ht="15" thickBot="1">
+      <c r="B107" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" ht="15" thickBot="1">
+      <c r="C108" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" ht="15" thickBot="1">
+      <c r="C109" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y109" s="1" t="str">
+        <f>CONCATENATE(W109," ",E109,F109,G109,H109,I109,J109,K109,L109,M109,N109,O109,P109,Q109,R109,,S109,T109,U109,V109,W109,X109)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" ht="15" thickBot="1"/>
+    <row r="112" spans="2:26" ht="15" thickBot="1">
+      <c r="C112" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="15" thickBot="1">
+      <c r="C113" s="17" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -1659,30 +1659,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">rails generate migration add_day_of_test_to_engineorders </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF990073"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>day_of_test</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:date</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">rails generate migration remove_day_of_test_from_engineorders </t>
     </r>
     <r>
@@ -1702,6 +1678,30 @@
         <family val="3"/>
       </rPr>
       <t>:string</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rails generate migration add_day_of_test_again_to_engineorders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF990073"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>day_of_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:date</t>
     </r>
     <phoneticPr fontId="5"/>
   </si>
@@ -4558,12 +4558,12 @@
     <row r="111" spans="2:26" ht="15" thickBot="1"/>
     <row r="112" spans="2:26" ht="15" thickBot="1">
       <c r="C112" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="15" thickBot="1">
       <c r="C113" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="220">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1704,6 +1704,84 @@
       <t>:date</t>
     </r>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>% rake db:fixtures:extract FIXTURES=enginestatuses</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注クラスに、返却日、返却コメント、送り状No（旧エンジン）　　出荷日はある！</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>シュッカビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>returning_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>returning_comment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>:text</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>送り状No(新エンジン）</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>invoice_no_new</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>送り状No(旧エンジン）</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>invoice_no_old</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2230,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM113"/>
+  <dimension ref="A1:AM118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="B110" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3853,11 +3931,14 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15" thickBot="1">
+    <row r="39" spans="1:25" ht="18" thickBot="1">
       <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="1"/>
+      <c r="K39" s="18" t="s">
+        <v>211</v>
+      </c>
       <c r="Y39" s="13"/>
     </row>
     <row r="40" spans="1:25" ht="15" thickBot="1">
@@ -4561,9 +4642,102 @@
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="15" thickBot="1">
+    <row r="113" spans="2:27" ht="15" thickBot="1">
       <c r="C113" s="17" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="2:27">
+      <c r="B115" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="2:27">
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116" s="11"/>
+      <c r="G116" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H116" s="11"/>
+      <c r="I116" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J116" s="12"/>
+      <c r="K116" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L116" s="11"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="10"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="10"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+    </row>
+    <row r="117" spans="2:27">
+      <c r="C117" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M117" s="3"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="1" t="str">
+        <f>"rails g migration add_locationcols_to_companies" &amp;CONCATENATE(" ",E117,F117,G117,H117,I117,J117,K117,L117,M117,N117,O117,P117,Q117,R117,,S117,T117,U117,V117,W117,X117)</f>
+        <v xml:space="preserve">rails g migration add_locationcols_to_companies returning_date:string returning_comment:textinvoice_no_new:string invoice_no_old:string </v>
+      </c>
+    </row>
+    <row r="118" spans="2:27">
+      <c r="Y118" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@gitwork\r2\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="8025"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="r2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -20,7 +25,7 @@
     <author>0171702</author>
   </authors>
   <commentList>
-    <comment ref="M30" authorId="0">
+    <comment ref="M30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q94" authorId="0">
+    <comment ref="Q94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q97" authorId="0">
+    <comment ref="Q97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="213">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1705,12 +1710,29 @@
     </r>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>受注に「物件名」を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ブッケンメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rails g migration addTitleToEngineorders title:string</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1944,7 +1966,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1986,7 +2008,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2021,7 +2043,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2230,13 +2252,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM113"/>
+  <dimension ref="A1:AM116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
@@ -2570,7 +2592,7 @@
     <col min="16135" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="6" customFormat="1">
+    <row r="1" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2602,15 +2624,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="6" customFormat="1"/>
-    <row r="3" spans="1:25">
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="4" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
@@ -2638,7 +2660,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2684,7 +2706,7 @@
         <v xml:space="preserve">rails generate scaffold Company name:string category:string </v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="6" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
@@ -2716,7 +2738,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2770,7 +2792,7 @@
         <v xml:space="preserve">rails generate scaffold Location postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
@@ -2796,7 +2818,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2836,7 +2858,7 @@
         <v xml:space="preserve">rails generate scaffold Enginestatus name:string </v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="10" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
@@ -2862,7 +2884,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2902,7 +2924,7 @@
         <v xml:space="preserve">rails generate scaffold Businessstatus name:string </v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="12" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
@@ -2930,7 +2952,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="12"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -2974,7 +2996,7 @@
         <v xml:space="preserve">rails generate scaffold Engine engineModelName:string salesModelName:string </v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="14" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
@@ -3002,7 +3024,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -3046,19 +3068,19 @@
         <v xml:space="preserve">rails generate scaffold Enginemodel modelcode:string name:string </v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="13" customFormat="1" ht="12">
+    <row r="16" spans="1:25" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="F16" s="14"/>
       <c r="H16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:39" s="8" customFormat="1" ht="12">
+    <row r="18" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
@@ -3088,7 +3110,7 @@
       <c r="W18" s="10"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3136,7 +3158,7 @@
         <v xml:space="preserve">rails generate scaffold Returning returnDate:date returningComment:text sendingComment:text </v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="8" customFormat="1" ht="12">
+    <row r="20" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>0</v>
@@ -3166,7 +3188,7 @@
       <c r="W20" s="10"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -3212,7 +3234,7 @@
         <v xml:space="preserve">rails generate scaffold Arrival arrivalDate:date arrivalComment:text </v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="8" customFormat="1" ht="12">
+    <row r="22" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="20" t="s">
@@ -3250,7 +3272,7 @@
       <c r="W22" s="10"/>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -3314,7 +3336,7 @@
         <v xml:space="preserve">rails generate scaffold Repair issueNo:string issueDate:date arriveDate:date startDate:date finishDate:date beforeComment:text afterComment:text </v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="8" customFormat="1">
+    <row r="24" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="10" t="s">
@@ -3368,7 +3390,7 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -3448,7 +3470,7 @@
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
     </row>
-    <row r="26" spans="1:39" s="8" customFormat="1">
+    <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -3486,7 +3508,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -3515,7 +3537,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:39" s="8" customFormat="1">
+    <row r="28" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
         <v>0</v>
@@ -3545,7 +3567,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -3578,7 +3600,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
@@ -3625,7 +3647,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>163</v>
       </c>
@@ -3695,7 +3717,7 @@
         <v xml:space="preserve">rails generate scaffold Inquiry loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer dayOfTest:date changeComment:text </v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="8" customFormat="1">
+    <row r="32" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="3"/>
@@ -3720,7 +3742,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="4"/>
@@ -3750,7 +3772,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="8" customFormat="1">
+    <row r="34" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -3775,7 +3797,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
@@ -3805,7 +3827,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
@@ -3835,13 +3857,13 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="D37" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>77</v>
       </c>
@@ -3853,14 +3875,14 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15" thickBot="1">
+    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="1"/>
       <c r="Y39" s="13"/>
     </row>
-    <row r="40" spans="1:25" ht="15" thickBot="1">
+    <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C40" s="16" t="s">
         <v>79</v>
       </c>
@@ -3869,7 +3891,7 @@
         <v xml:space="preserve">rails generate scaffold rails generate devise:install </v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="18" thickBot="1">
+    <row r="41" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C41" s="16" t="s">
         <v>80</v>
       </c>
@@ -3878,7 +3900,7 @@
       </c>
       <c r="Y41" s="13"/>
     </row>
-    <row r="42" spans="1:25" ht="17.25">
+    <row r="42" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C42" s="6" t="s">
         <v>81</v>
       </c>
@@ -3890,7 +3912,7 @@
         <v>rails generate scaffold rails g devise:views # =&gt; すべてテーブルの内容が tmp/fixtures/*.yml に抽出される</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="17.25">
+    <row r="43" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -3898,12 +3920,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="17.25">
+    <row r="44" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="K44" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" thickBot="1">
+    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>83</v>
       </c>
@@ -3911,12 +3933,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15" thickBot="1">
+    <row r="46" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C46" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" thickBot="1">
+    <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C47" s="17" t="s">
         <v>86</v>
       </c>
@@ -3924,17 +3946,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1">
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C48" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="K49" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17.25">
+    <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>87</v>
       </c>
@@ -3942,12 +3964,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C51" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C52" s="6" t="s">
         <v>89</v>
       </c>
@@ -3958,7 +3980,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.25">
+    <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C53" s="6" t="s">
         <v>90</v>
       </c>
@@ -3966,107 +3988,107 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1">
+    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1">
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C57" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1">
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1">
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C59" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C61" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1">
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1">
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C63" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1">
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="1:25" ht="15" thickBot="1">
+    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C65" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15" thickBot="1">
+    <row r="70" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15" thickBot="1">
+    <row r="71" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C71" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="15" thickBot="1">
+    <row r="73" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15" thickBot="1">
+    <row r="74" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C74" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C77" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="20" t="s">
@@ -4111,7 +4133,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C80" s="4" t="s">
         <v>35</v>
       </c>
@@ -4173,12 +4195,12 @@
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B82" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E83" s="6" t="s">
         <v>159</v>
       </c>
@@ -4186,7 +4208,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
         <v>35</v>
       </c>
@@ -4202,12 +4224,12 @@
         <v xml:space="preserve"> returningComment:text </v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B87" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="8" customFormat="1" ht="12">
+    <row r="88" spans="1:26" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10" t="s">
@@ -4239,7 +4261,7 @@
       <c r="W88" s="10"/>
       <c r="X88" s="12"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="15"/>
       <c r="C89" s="4" t="s">
@@ -4289,20 +4311,20 @@
         <v xml:space="preserve">rails g migration add_locationcols_to_companies postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Y90" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Y91"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B92" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="4"/>
@@ -4352,7 +4374,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>163</v>
       </c>
@@ -4426,7 +4448,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="97" spans="2:26">
+    <row r="97" spans="2:26" x14ac:dyDescent="0.15">
       <c r="E97" s="3" t="s">
         <v>197</v>
       </c>
@@ -4460,7 +4482,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="2:26">
+    <row r="98" spans="2:26" x14ac:dyDescent="0.15">
       <c r="E98" s="10" t="s">
         <v>198</v>
       </c>
@@ -4504,41 +4526,41 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="100" spans="2:26">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.15">
       <c r="E100" s="6" t="str">
         <f>CONCATENATE($A$1,C95," ",E95,F95,G95,H95,I95,J95,K95,L95,M95,N95,O95,P95,Q95,R95,S95,T95,U95,V95,W95,X95,Y95,Z95) &amp; CONCATENATE(E98,F98,G98,H98,I98,J98,K98,L98)</f>
         <v xml:space="preserve">rails generate scaffold Engineorder issueNo:string inquiryDate:date loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer changeComment:text orderDate:date sendingCompanyCode:integer sendingComment:text deliveryDate:date </v>
       </c>
     </row>
-    <row r="102" spans="2:26">
+    <row r="102" spans="2:26" x14ac:dyDescent="0.15">
       <c r="C102" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="2:26" ht="15" thickBot="1">
+    <row r="103" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="2:26" ht="15" thickBot="1">
+    <row r="104" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C104" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="2:26" ht="15" thickBot="1">
+    <row r="105" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C105" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="2:26" ht="15" thickBot="1">
+    <row r="106" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="2:26" ht="15" thickBot="1">
+    <row r="107" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="2:26" ht="15" thickBot="1">
+    <row r="108" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C108" s="17" t="s">
         <v>207</v>
       </c>
@@ -4546,7 +4568,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="2:26" ht="15" thickBot="1">
+    <row r="109" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C109" s="17" t="s">
         <v>208</v>
       </c>
@@ -4555,15 +4577,25 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="111" spans="2:26" ht="15" thickBot="1"/>
-    <row r="112" spans="2:26" ht="15" thickBot="1">
+    <row r="111" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C112" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="15" thickBot="1">
+    <row r="113" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C113" s="17" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B115" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C116" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4579,13 +4611,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -4630,7 +4662,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.25">
+    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4696,7 +4728,7 @@
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
         <v>129</v>
       </c>
@@ -4719,52 +4751,52 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I15" t="s">
         <v>130</v>
       </c>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@gitwork\merge\r2\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="8025"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="r2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -25,7 +20,7 @@
     <author>0171702</author>
   </authors>
   <commentList>
-    <comment ref="M30" authorId="0" shapeId="0">
+    <comment ref="M30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q94" authorId="0" shapeId="0">
+    <comment ref="Q94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q97" authorId="0" shapeId="0">
+    <comment ref="Q97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1806,7 +1801,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2040,7 +2035,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2082,7 +2077,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2117,7 +2112,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2328,11 +2323,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="H36" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
@@ -2666,7 +2661,7 @@
     <col min="16135" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2698,15 +2693,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" s="6" customFormat="1"/>
+    <row r="3" spans="1:25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" s="8" customFormat="1" ht="12">
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
@@ -2734,7 +2729,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +2775,7 @@
         <v xml:space="preserve">rails generate scaffold Company name:string category:string </v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" s="8" customFormat="1" ht="12">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
@@ -2812,7 +2807,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2866,7 +2861,7 @@
         <v xml:space="preserve">rails generate scaffold Location postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="12">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
@@ -2892,7 +2887,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2932,7 +2927,7 @@
         <v xml:space="preserve">rails generate scaffold Enginestatus name:string </v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" s="8" customFormat="1" ht="12">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
@@ -2958,7 +2953,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2998,7 +2993,7 @@
         <v xml:space="preserve">rails generate scaffold Businessstatus name:string </v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" s="8" customFormat="1" ht="12">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
@@ -3026,7 +3021,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="12"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -3070,7 +3065,7 @@
         <v xml:space="preserve">rails generate scaffold Engine engineModelName:string salesModelName:string </v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" s="8" customFormat="1" ht="12">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
@@ -3098,7 +3093,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -3142,19 +3137,19 @@
         <v xml:space="preserve">rails generate scaffold Enginemodel modelcode:string name:string </v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" s="13" customFormat="1" ht="12">
       <c r="F16" s="14"/>
       <c r="H16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39">
       <c r="A17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39" s="8" customFormat="1" ht="12">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
@@ -3184,7 +3179,7 @@
       <c r="W18" s="10"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3232,7 +3227,7 @@
         <v xml:space="preserve">rails generate scaffold Returning returnDate:date returningComment:text sendingComment:text </v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" s="8" customFormat="1" ht="12">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>0</v>
@@ -3262,7 +3257,7 @@
       <c r="W20" s="10"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -3308,7 +3303,7 @@
         <v xml:space="preserve">rails generate scaffold Arrival arrivalDate:date arrivalComment:text </v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" s="8" customFormat="1" ht="12">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="20" t="s">
@@ -3346,7 +3341,7 @@
       <c r="W22" s="10"/>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -3410,7 +3405,7 @@
         <v xml:space="preserve">rails generate scaffold Repair issueNo:string issueDate:date arriveDate:date startDate:date finishDate:date beforeComment:text afterComment:text </v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39" s="8" customFormat="1">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="10" t="s">
@@ -3464,7 +3459,7 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -3544,7 +3539,7 @@
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
     </row>
-    <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:39" s="8" customFormat="1">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -3582,7 +3577,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:39">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -3611,7 +3606,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39" s="8" customFormat="1">
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
         <v>0</v>
@@ -3641,7 +3636,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -3674,7 +3669,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:39">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
@@ -3721,7 +3716,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:39">
       <c r="A31" s="1" t="s">
         <v>163</v>
       </c>
@@ -3791,7 +3786,7 @@
         <v xml:space="preserve">rails generate scaffold Inquiry loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer dayOfTest:date changeComment:text </v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:39" s="8" customFormat="1">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="3"/>
@@ -3816,7 +3811,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="4"/>
@@ -3846,7 +3841,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" s="8" customFormat="1">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -3871,7 +3866,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
@@ -3901,7 +3896,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
@@ -3931,13 +3926,13 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25">
       <c r="D37" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25">
       <c r="A38" s="7" t="s">
         <v>77</v>
       </c>
@@ -3949,14 +3944,14 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="15" thickBot="1">
       <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="1"/>
       <c r="Y39" s="13"/>
     </row>
-    <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="15" thickBot="1">
       <c r="C40" s="16" t="s">
         <v>79</v>
       </c>
@@ -3965,7 +3960,7 @@
         <v xml:space="preserve">rails generate scaffold rails generate devise:install </v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="18" thickBot="1">
       <c r="C41" s="16" t="s">
         <v>80</v>
       </c>
@@ -3974,7 +3969,7 @@
       </c>
       <c r="Y41" s="13"/>
     </row>
-    <row r="42" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" ht="17.25">
       <c r="C42" s="6" t="s">
         <v>81</v>
       </c>
@@ -3986,7 +3981,7 @@
         <v>rails generate scaffold rails g devise:views # =&gt; すべてテーブルの内容が tmp/fixtures/*.yml に抽出される</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" ht="17.25">
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -3994,12 +3989,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" ht="17.25">
       <c r="K44" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="15" thickBot="1">
       <c r="B45" s="6" t="s">
         <v>83</v>
       </c>
@@ -4007,12 +4002,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15" thickBot="1">
       <c r="C46" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="15" thickBot="1">
       <c r="C47" s="17" t="s">
         <v>86</v>
       </c>
@@ -4020,17 +4015,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15" thickBot="1">
       <c r="C48" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="K49" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" ht="17.25">
       <c r="B50" s="6" t="s">
         <v>87</v>
       </c>
@@ -4038,12 +4033,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="C51" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12">
       <c r="C52" s="6" t="s">
         <v>89</v>
       </c>
@@ -4054,7 +4049,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" ht="17.25">
       <c r="C53" s="6" t="s">
         <v>90</v>
       </c>
@@ -4062,107 +4057,107 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
       <c r="A55" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="15" thickBot="1">
       <c r="B56" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="15" thickBot="1">
       <c r="C57" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="15" thickBot="1">
       <c r="B58" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="15" thickBot="1">
       <c r="C59" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="15" thickBot="1">
       <c r="B60" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="15" thickBot="1">
       <c r="C61" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="15" thickBot="1">
       <c r="B62" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="15" thickBot="1">
       <c r="C63" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="15" thickBot="1">
       <c r="B64" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15" thickBot="1">
       <c r="C65" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:25">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:25">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25">
       <c r="A69" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15" thickBot="1">
       <c r="B70" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15" thickBot="1">
       <c r="C71" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15" thickBot="1">
       <c r="B73" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15" thickBot="1">
       <c r="C74" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25">
       <c r="B76" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:25">
       <c r="C77" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:25">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="20" t="s">
@@ -4207,7 +4202,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25">
       <c r="C80" s="4" t="s">
         <v>35</v>
       </c>
@@ -4269,12 +4264,12 @@
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:26">
       <c r="B82" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:26">
       <c r="E83" s="6" t="s">
         <v>159</v>
       </c>
@@ -4282,7 +4277,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:26">
       <c r="C84" s="4" t="s">
         <v>35</v>
       </c>
@@ -4298,12 +4293,12 @@
         <v xml:space="preserve"> returningComment:text </v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:26">
       <c r="B87" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:26" s="8" customFormat="1" ht="12">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10" t="s">
@@ -4335,7 +4330,7 @@
       <c r="W88" s="10"/>
       <c r="X88" s="12"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:26">
       <c r="A89" s="1"/>
       <c r="B89" s="15"/>
       <c r="C89" s="4" t="s">
@@ -4385,20 +4380,20 @@
         <v xml:space="preserve">rails g migration add_locationcols_to_companies postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:26">
       <c r="Y90" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:26">
       <c r="Y91"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:26">
       <c r="B92" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:26">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="4"/>
@@ -4448,7 +4443,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:26">
       <c r="A95" s="1" t="s">
         <v>163</v>
       </c>
@@ -4522,7 +4517,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:26">
       <c r="E97" s="3" t="s">
         <v>197</v>
       </c>
@@ -4556,7 +4551,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:26">
       <c r="E98" s="10" t="s">
         <v>198</v>
       </c>
@@ -4600,41 +4595,41 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:26">
       <c r="E100" s="6" t="str">
         <f>CONCATENATE($A$1,C95," ",E95,F95,G95,H95,I95,J95,K95,L95,M95,N95,O95,P95,Q95,R95,S95,T95,U95,V95,W95,X95,Y95,Z95) &amp; CONCATENATE(E98,F98,G98,H98,I98,J98,K98,L98)</f>
         <v xml:space="preserve">rails generate scaffold Engineorder issueNo:string inquiryDate:date loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer changeComment:text orderDate:date sendingCompanyCode:integer sendingComment:text deliveryDate:date </v>
       </c>
     </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:26">
       <c r="C102" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:26" ht="15" thickBot="1">
       <c r="B103" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:26" ht="15" thickBot="1">
       <c r="C104" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:26" ht="15" thickBot="1">
       <c r="C105" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:26" ht="15" thickBot="1">
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:26" ht="15" thickBot="1">
       <c r="B107" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:26" ht="15" thickBot="1">
       <c r="C108" s="17" t="s">
         <v>207</v>
       </c>
@@ -4642,7 +4637,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:26" ht="15" thickBot="1">
       <c r="C109" s="17" t="s">
         <v>208</v>
       </c>
@@ -4651,33 +4646,33 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="111" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:26" ht="15" thickBot="1"/>
+    <row r="112" spans="2:26" ht="15" thickBot="1">
       <c r="C112" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:27" ht="15" thickBot="1">
       <c r="C113" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:27">
       <c r="B115" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:27">
       <c r="C116" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:27">
       <c r="B118" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:27">
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="10" t="s">
@@ -4712,7 +4707,7 @@
       <c r="Z119" s="8"/>
       <c r="AA119" s="8"/>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:27">
       <c r="C120" s="4" t="s">
         <v>199</v>
       </c>
@@ -4760,7 +4755,7 @@
         <v xml:space="preserve">rails g migration add_locationcols_to_companies returning_date:string returning_comment:textinvoice_no_new:string invoice_no_old:string </v>
       </c>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:27">
       <c r="Y121" s="6" t="s">
         <v>162</v>
       </c>
@@ -4782,9 +4777,9 @@
       <selection activeCell="C1" sqref="C1:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -4829,7 +4824,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4895,7 +4890,7 @@
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23">
       <c r="E3" t="s">
         <v>129</v>
       </c>
@@ -4918,52 +4913,52 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23">
       <c r="I4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="I5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="I6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="I7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="I8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="I9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="I10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="I11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="I12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="I15" t="s">
         <v>130</v>
       </c>

--- a/doc/r2_scaffold.xlsx
+++ b/doc/r2_scaffold.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@gitwork\r2\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="8025"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="r2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -20,7 +25,7 @@
     <author>0171702</author>
   </authors>
   <commentList>
-    <comment ref="M30" authorId="0">
+    <comment ref="M30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q94" authorId="0">
+    <comment ref="Q94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q97" authorId="0">
+    <comment ref="Q97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="223">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3"/>
@@ -1796,12 +1801,32 @@
     <t>invoice_no_old</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>受注クラスに引当日を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒキアテ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rails g migration addAllocateddateToEngineorders allocated_date:date</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2035,7 +2060,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2077,7 +2102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2112,7 +2137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2321,13 +2346,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM121"/>
+  <dimension ref="A1:AM124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H36" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
@@ -2661,7 +2686,7 @@
     <col min="16135" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="6" customFormat="1">
+    <row r="1" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2693,15 +2718,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="6" customFormat="1"/>
-    <row r="3" spans="1:25">
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="4" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
@@ -2729,7 +2754,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +2800,7 @@
         <v xml:space="preserve">rails generate scaffold Company name:string category:string </v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="6" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
@@ -2807,7 +2832,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2861,7 +2886,7 @@
         <v xml:space="preserve">rails generate scaffold Location postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
@@ -2887,7 +2912,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2927,7 +2952,7 @@
         <v xml:space="preserve">rails generate scaffold Enginestatus name:string </v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="10" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
@@ -2953,7 +2978,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2993,7 +3018,7 @@
         <v xml:space="preserve">rails generate scaffold Businessstatus name:string </v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="12" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
@@ -3021,7 +3046,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="12"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -3065,7 +3090,7 @@
         <v xml:space="preserve">rails generate scaffold Engine engineModelName:string salesModelName:string </v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="8" customFormat="1" ht="12">
+    <row r="14" spans="1:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
@@ -3093,7 +3118,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -3137,19 +3162,19 @@
         <v xml:space="preserve">rails generate scaffold Enginemodel modelcode:string name:string </v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="13" customFormat="1" ht="12">
+    <row r="16" spans="1:25" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="F16" s="14"/>
       <c r="H16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:39" s="8" customFormat="1" ht="12">
+    <row r="18" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
@@ -3179,7 +3204,7 @@
       <c r="W18" s="10"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3227,7 +3252,7 @@
         <v xml:space="preserve">rails generate scaffold Returning returnDate:date returningComment:text sendingComment:text </v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="8" customFormat="1" ht="12">
+    <row r="20" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>0</v>
@@ -3257,7 +3282,7 @@
       <c r="W20" s="10"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -3303,7 +3328,7 @@
         <v xml:space="preserve">rails generate scaffold Arrival arrivalDate:date arrivalComment:text </v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="8" customFormat="1" ht="12">
+    <row r="22" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="20" t="s">
@@ -3341,7 +3366,7 @@
       <c r="W22" s="10"/>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -3405,7 +3430,7 @@
         <v xml:space="preserve">rails generate scaffold Repair issueNo:string issueDate:date arriveDate:date startDate:date finishDate:date beforeComment:text afterComment:text </v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="8" customFormat="1">
+    <row r="24" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="10" t="s">
@@ -3459,7 +3484,7 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -3539,7 +3564,7 @@
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
     </row>
-    <row r="26" spans="1:39" s="8" customFormat="1">
+    <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -3577,7 +3602,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -3606,7 +3631,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:39" s="8" customFormat="1">
+    <row r="28" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
         <v>0</v>
@@ -3636,7 +3661,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -3669,7 +3694,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
@@ -3716,7 +3741,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>163</v>
       </c>
@@ -3786,7 +3811,7 @@
         <v xml:space="preserve">rails generate scaffold Inquiry loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer dayOfTest:date changeComment:text </v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="8" customFormat="1">
+    <row r="32" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="3"/>
@@ -3811,7 +3836,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="4"/>
@@ -3841,7 +3866,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="8" customFormat="1">
+    <row r="34" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -3866,7 +3891,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
@@ -3896,7 +3921,7 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
@@ -3926,13 +3951,13 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="D37" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>77</v>
       </c>
@@ -3944,14 +3969,14 @@
         <v xml:space="preserve">rails generate scaffold  </v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15" thickBot="1">
+    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="1"/>
       <c r="Y39" s="13"/>
     </row>
-    <row r="40" spans="1:25" ht="15" thickBot="1">
+    <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C40" s="16" t="s">
         <v>79</v>
       </c>
@@ -3960,7 +3985,7 @@
         <v xml:space="preserve">rails generate scaffold rails generate devise:install </v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="18" thickBot="1">
+    <row r="41" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C41" s="16" t="s">
         <v>80</v>
       </c>
@@ -3969,7 +3994,7 @@
       </c>
       <c r="Y41" s="13"/>
     </row>
-    <row r="42" spans="1:25" ht="17.25">
+    <row r="42" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C42" s="6" t="s">
         <v>81</v>
       </c>
@@ -3981,7 +4006,7 @@
         <v>rails generate scaffold rails g devise:views # =&gt; すべてテーブルの内容が tmp/fixtures/*.yml に抽出される</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="17.25">
+    <row r="43" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
@@ -3989,12 +4014,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="17.25">
+    <row r="44" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="K44" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" thickBot="1">
+    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>83</v>
       </c>
@@ -4002,12 +4027,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15" thickBot="1">
+    <row r="46" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C46" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" thickBot="1">
+    <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C47" s="17" t="s">
         <v>86</v>
       </c>
@@ -4015,17 +4040,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1">
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C48" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="K49" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17.25">
+    <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>87</v>
       </c>
@@ -4033,12 +4058,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C51" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C52" s="6" t="s">
         <v>89</v>
       </c>
@@ -4049,7 +4074,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.25">
+    <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C53" s="6" t="s">
         <v>90</v>
       </c>
@@ -4057,107 +4082,107 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1">
+    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1">
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C57" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1">
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1">
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C59" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C61" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1">
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1">
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C63" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1">
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="1:25" ht="15" thickBot="1">
+    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C65" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C66" s="19"/>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15" thickBot="1">
+    <row r="70" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15" thickBot="1">
+    <row r="71" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C71" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="15" thickBot="1">
+    <row r="73" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15" thickBot="1">
+    <row r="74" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C74" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B76" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C77" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="20" t="s">
@@ -4202,7 +4227,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C80" s="4" t="s">
         <v>35</v>
       </c>
@@ -4264,12 +4289,12 @@
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B82" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
       <c r="E83" s="6" t="s">
         <v>159</v>
       </c>
@@ -4277,7 +4302,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C84" s="4" t="s">
         <v>35</v>
       </c>
@@ -4293,12 +4318,12 @@
         <v xml:space="preserve"> returningComment:text </v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B87" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="8" customFormat="1" ht="12">
+    <row r="88" spans="1:26" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10" t="s">
@@ -4330,7 +4355,7 @@
       <c r="W88" s="10"/>
       <c r="X88" s="12"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="15"/>
       <c r="C89" s="4" t="s">
@@ -4380,20 +4405,20 @@
         <v xml:space="preserve">rails g migration add_locationcols_to_companies postcode:string address:string phoneNo:string destinationName:string </v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Y90" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Y91"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B92" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="4"/>
@@ -4443,7 +4468,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>163</v>
       </c>
@@ -4517,7 +4542,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="97" spans="2:26">
+    <row r="97" spans="2:26" x14ac:dyDescent="0.15">
       <c r="E97" s="3" t="s">
         <v>197</v>
       </c>
@@ -4551,7 +4576,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="2:26">
+    <row r="98" spans="2:26" x14ac:dyDescent="0.15">
       <c r="E98" s="10" t="s">
         <v>198</v>
       </c>
@@ -4595,41 +4620,41 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="100" spans="2:26">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.15">
       <c r="E100" s="6" t="str">
         <f>CONCATENATE($A$1,C95," ",E95,F95,G95,H95,I95,J95,K95,L95,M95,N95,O95,P95,Q95,R95,S95,T95,U95,V95,W95,X95,Y95,Z95) &amp; CONCATENATE(E98,F98,G98,H98,I98,J98,K98,L98)</f>
         <v xml:space="preserve">rails generate scaffold Engineorder issueNo:string inquiryDate:date loginUserId:integer branchCode:integer userId:integer placeCode:integer orderer:string machineNo:string timeOfRunning:integer changeComment:text orderDate:date sendingCompanyCode:integer sendingComment:text deliveryDate:date </v>
       </c>
     </row>
-    <row r="102" spans="2:26">
+    <row r="102" spans="2:26" x14ac:dyDescent="0.15">
       <c r="C102" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="2:26" ht="15" thickBot="1">
+    <row r="103" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="2:26" ht="15" thickBot="1">
+    <row r="104" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C104" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="2:26" ht="15" thickBot="1">
+    <row r="105" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C105" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="2:26" ht="15" thickBot="1">
+    <row r="106" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C106" s="17"/>
     </row>
-    <row r="107" spans="2:26" ht="15" thickBot="1">
+    <row r="107" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="2:26" ht="15" thickBot="1">
+    <row r="108" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C108" s="17" t="s">
         <v>207</v>
       </c>
@@ -4637,7 +4662,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="2:26" ht="15" thickBot="1">
+    <row r="109" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C109" s="17" t="s">
         <v>208</v>
       </c>
@@ -4646,33 +4671,33 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="111" spans="2:26" ht="15" thickBot="1"/>
-    <row r="112" spans="2:26" ht="15" thickBot="1">
+    <row r="111" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C112" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="2:27" ht="15" thickBot="1">
+    <row r="113" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C113" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="2:27">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B115" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="2:27">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C116" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="2:27">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B118" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="2:27">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="10" t="s">
@@ -4707,7 +4732,7 @@
       <c r="Z119" s="8"/>
       <c r="AA119" s="8"/>
     </row>
-    <row r="120" spans="2:27">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C120" s="4" t="s">
         <v>199</v>
       </c>
@@ -4755,9 +4780,19 @@
         <v xml:space="preserve">rails g migration add_locationcols_to_companies returning_date:string returning_comment:textinvoice_no_new:string invoice_no_old:string </v>
       </c>
     </row>
-    <row r="121" spans="2:27">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.15">
       <c r="Y121" s="6" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B123" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C124" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4777,9 +4812,9 @@
       <selection activeCell="C1" sqref="C1:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -4824,7 +4859,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.25">
+    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4890,7 +4925,7 @@
         <v xml:space="preserve">rails g migration add_attrs1_to_repairs  timeOfRunning:integer dayOfTest:date arrivalComment:text orderNo:string orderDate:date constructionNo:string desirableFinishDate:date estimatedFinishDate:date </v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
         <v>129</v>
       </c>
@@ -4913,52 +4948,52 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I15" t="s">
         <v>130</v>
       </c>
